--- a/medicine/Enfance/Les_Cavaliers_de_Rome/Les_Cavaliers_de_Rome.xlsx
+++ b/medicine/Enfance/Les_Cavaliers_de_Rome/Les_Cavaliers_de_Rome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Cavaliers de Rome (The Charioteer of Delphi) est le douzième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, en 2008. L'action de ce roman historique se situe sous la Rome antique.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes amis sont envoyés au Circus Maximus, pour retrouver un cheval de course qui a disparu. Mais il se pourrait qu'une autre chose soit caché derrière cette enquête...
 </t>
@@ -543,7 +557,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2008,  (ISBN 978-2-7459-3110-8)
 Milan (Poche Histoire), 16 mars 2011,  (ISBN 978-2-7459-4760-4)</t>
@@ -574,7 +590,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse   Portail de la Rome antique                   </t>
